--- a/data_year/zb/对外经济贸易/人民币汇率(年平均价).xlsx
+++ b/data_year/zb/对外经济贸易/人民币汇率(年平均价).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,396 +458,248 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.6864</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>7.7279</v>
+      </c>
+      <c r="C2" t="n">
+        <v>897.25</v>
+      </c>
       <c r="D2" t="n">
-        <v>106.18</v>
+        <v>87.13</v>
       </c>
       <c r="E2" t="n">
-        <v>827.84</v>
+        <v>676.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.8075</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>8.105</v>
+      </c>
+      <c r="C3" t="n">
+        <v>900.11</v>
+      </c>
       <c r="D3" t="n">
-        <v>106.08</v>
+        <v>82.968</v>
       </c>
       <c r="E3" t="n">
-        <v>827.7</v>
+        <v>645.88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.6237</v>
+        <v>7.9037</v>
       </c>
       <c r="C4" t="n">
-        <v>800.58</v>
+        <v>810.67</v>
       </c>
       <c r="D4" t="n">
-        <v>106.07</v>
+        <v>81.376</v>
       </c>
       <c r="E4" t="n">
-        <v>827.7</v>
+        <v>631.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.1466</v>
+        <v>6.3323</v>
       </c>
       <c r="C5" t="n">
-        <v>936.13</v>
+        <v>822.1900000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>106.24</v>
+        <v>79.845</v>
       </c>
       <c r="E5" t="n">
-        <v>827.7</v>
+        <v>619.3200000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.6552</v>
+        <v>5.8196</v>
       </c>
       <c r="C6" t="n">
-        <v>1029</v>
+        <v>816.51</v>
       </c>
       <c r="D6" t="n">
-        <v>106.23</v>
+        <v>79.22</v>
       </c>
       <c r="E6" t="n">
-        <v>827.6799999999999</v>
+        <v>614.28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.4484</v>
+        <v>5.1543</v>
       </c>
       <c r="C7" t="n">
-        <v>1019.53</v>
+        <v>691.41</v>
       </c>
       <c r="D7" t="n">
-        <v>105.3</v>
+        <v>80.34</v>
       </c>
       <c r="E7" t="n">
-        <v>819.17</v>
+        <v>622.84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.857</v>
+        <v>6.1243</v>
       </c>
       <c r="C8" t="n">
-        <v>1001.9</v>
+        <v>734.26</v>
       </c>
       <c r="D8" t="n">
-        <v>102.62</v>
+        <v>85.58</v>
       </c>
       <c r="E8" t="n">
-        <v>797.1799999999999</v>
+        <v>664.23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.4632</v>
+        <v>6.0244</v>
       </c>
       <c r="C9" t="n">
-        <v>1041.75</v>
+        <v>763.03</v>
       </c>
       <c r="D9" t="n">
-        <v>97.459</v>
+        <v>86.64</v>
       </c>
       <c r="E9" t="n">
-        <v>760.4</v>
+        <v>675.1799999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.7427</v>
+        <v>5.989</v>
       </c>
       <c r="C10" t="n">
-        <v>1022.27</v>
+        <v>780.16</v>
       </c>
       <c r="D10" t="n">
-        <v>89.19</v>
+        <v>84.43000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>694.51</v>
+        <v>661.74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.2986</v>
+        <v>6.3347</v>
       </c>
       <c r="C11" t="n">
-        <v>952.7</v>
+        <v>772.55</v>
       </c>
       <c r="D11" t="n">
-        <v>88.123</v>
+        <v>88.05</v>
       </c>
       <c r="E11" t="n">
-        <v>683.1</v>
+        <v>689.85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.7279</v>
+        <v>6.4626</v>
       </c>
       <c r="C12" t="n">
-        <v>897.25</v>
+        <v>787.55</v>
       </c>
       <c r="D12" t="n">
-        <v>87.13</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>676.95</v>
+        <v>689.76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.105</v>
+        <v>5.8735</v>
       </c>
       <c r="C13" t="n">
-        <v>900.11</v>
+        <v>762.9299999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>82.968</v>
+        <v>83</v>
       </c>
       <c r="E13" t="n">
-        <v>645.88</v>
+        <v>645.15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.9037</v>
+        <v>5.1261</v>
       </c>
       <c r="C14" t="n">
-        <v>810.67</v>
+        <v>707.21</v>
       </c>
       <c r="D14" t="n">
-        <v>81.376</v>
+        <v>85.89</v>
       </c>
       <c r="E14" t="n">
-        <v>631.25</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6.3323</v>
-      </c>
-      <c r="C15" t="n">
-        <v>822.1900000000001</v>
-      </c>
-      <c r="D15" t="n">
-        <v>79.845</v>
-      </c>
-      <c r="E15" t="n">
-        <v>619.3200000000001</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5.8196</v>
-      </c>
-      <c r="C16" t="n">
-        <v>816.51</v>
-      </c>
-      <c r="D16" t="n">
-        <v>79.22</v>
-      </c>
-      <c r="E16" t="n">
-        <v>614.28</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5.1543</v>
-      </c>
-      <c r="C17" t="n">
-        <v>691.41</v>
-      </c>
-      <c r="D17" t="n">
-        <v>80.34</v>
-      </c>
-      <c r="E17" t="n">
-        <v>622.84</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6.1243</v>
-      </c>
-      <c r="C18" t="n">
-        <v>734.26</v>
-      </c>
-      <c r="D18" t="n">
-        <v>85.58</v>
-      </c>
-      <c r="E18" t="n">
-        <v>664.23</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6.0244</v>
-      </c>
-      <c r="C19" t="n">
-        <v>763.03</v>
-      </c>
-      <c r="D19" t="n">
-        <v>86.64</v>
-      </c>
-      <c r="E19" t="n">
-        <v>675.1799999999999</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5.989</v>
-      </c>
-      <c r="C20" t="n">
-        <v>780.16</v>
-      </c>
-      <c r="D20" t="n">
-        <v>84.43000000000001</v>
-      </c>
-      <c r="E20" t="n">
-        <v>661.74</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>6.3347</v>
-      </c>
-      <c r="C21" t="n">
-        <v>772.55</v>
-      </c>
-      <c r="D21" t="n">
-        <v>88.05</v>
-      </c>
-      <c r="E21" t="n">
-        <v>689.85</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>6.4626</v>
-      </c>
-      <c r="C22" t="n">
-        <v>787.5506173</v>
-      </c>
-      <c r="D22" t="n">
-        <v>88.93000000000001</v>
-      </c>
-      <c r="E22" t="n">
-        <v>689.76</v>
+        <v>672.61</v>
       </c>
     </row>
   </sheetData>
